--- a/database/industries/ghaza/gheshahdab/product/yearly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C48262-3E11-4624-9BA6-8078014151D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/ghaza/gheshahdab/product/yearly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C48262-3E11-4624-9BA6-8078014151D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCBB3A3-6B5D-4493-859C-F158CD920A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>19761</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
         <v>31788</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>33038</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1077,7 +1077,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1119,7 +1119,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>14</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3931856</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2002352</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>5970680</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>27507</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>27507</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>26</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>5998187</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1441,7 +1441,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>33</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>29919606</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>198970497</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>185265729</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>22005600</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1637,7 +1637,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>-2884219</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>-1599694</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>-4517120</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="16" t="s">
         <v>39</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>-9858</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>-9858</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="18" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>-4526978</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1991,7 +1991,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2001,7 +2001,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>43</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2033,7 +2033,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>44</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1047637</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>402658</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>45</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1453560</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>47</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>48</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>21</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>17649</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="18" t="s">
         <v>49</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>17649</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>26</v>
       </c>
